--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="68" activeTab="68"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="1000" firstSheet="79" activeTab="90"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -1543,16 +1543,37 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,31 +1586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,7 +1610,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,65 +1671,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1703,7 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,7 +1715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,19 +1757,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,31 +1853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,103 +1877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,35 +1897,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1956,17 +1938,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,6 +1979,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2002,10 +2002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2014,7 +2014,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2023,124 +2023,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3387,7 +3387,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -3998,7 +3998,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -5185,7 +5185,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -5441,7 +5441,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -8202,13 +8202,13 @@
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:H14"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="15.0916666666667" customWidth="1"/>
@@ -8220,121 +8220,121 @@
     <col min="8" max="8" width="12.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="b">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8799,13 +8799,13 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A13:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.0916666666667" customWidth="1"/>
     <col min="2" max="2" width="12.9083333333333" customWidth="1"/>
@@ -8815,121 +8815,121 @@
     <col min="7" max="7" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9198,134 +9198,134 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A16:H20"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.1833333333333" customWidth="1"/>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9709,10 +9709,10 @@
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A13:H22"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9727,231 +9727,231 @@
     <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="b">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10366,7 +10366,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10741,13 +10741,13 @@
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
@@ -10759,64 +10759,130 @@
     <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>194</v>
@@ -10824,24 +10890,24 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -10852,18 +10918,18 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -10874,72 +10940,6 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -13461,13 +13461,13 @@
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
@@ -13478,125 +13478,125 @@
     <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D5" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="b">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14167,10 +14167,10 @@
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -14184,211 +14184,211 @@
     <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>183</v>
+        <v>245</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>401</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>245</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>403</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -14662,10 +14662,10 @@
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A13:H21"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -14678,211 +14678,211 @@
     <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="b">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14976,7 +14976,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -17907,8 +17907,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="68" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -107,25 +107,12 @@
     <sheet name="attr-domain" sheetId="55" r:id="rId98"/>
     <sheet name="asso-domain" sheetId="57" r:id="rId99"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="438">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -1226,6 +1213,27 @@
   </si>
   <si>
     <t>Operstatus</t>
+  </si>
+  <si>
+    <t>collect_task</t>
+  </si>
+  <si>
+    <t>Collection Task</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>auto_collect</t>
+  </si>
+  <si>
+    <t>Auto collect</t>
+  </si>
+  <si>
+    <t>collect_time</t>
+  </si>
+  <si>
+    <t>Collection Time</t>
   </si>
   <si>
     <t>group</t>
@@ -1423,12 +1431,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1491,11 +1499,85 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,8 +1589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,48 +1605,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,36 +1630,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,20 +1638,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,7 +1658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1688,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,43 +1748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,37 +1766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,13 +1820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,37 +1838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,6 +1849,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1861,48 +1893,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1925,19 +1920,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1946,148 +1954,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2140,52 +2148,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2503,10 +2511,10 @@
       <selection activeCell="E16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.2545454545455" customWidth="1"/>
-    <col min="2" max="2" width="50.6272727272727" customWidth="1"/>
+    <col min="1" max="1" width="36.2583333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2656,16 +2664,16 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.9090909090909" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.0909090909091" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.725" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.0916666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1272727272727" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2918,11 +2926,11 @@
       <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="19.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="20.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="20.7583333333333" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2998,14 +3006,14 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="12.8166666666667" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="14.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="11.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="17.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="14.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3273,7 +3281,7 @@
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3346,15 +3354,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="12.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="10.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="15.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="14.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="13.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="17.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.275" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.4583333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3600,7 +3608,7 @@
       <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3673,15 +3681,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="15.3666666666667" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="10.725" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="16.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="13.275" customWidth="1"/>
+    <col min="8" max="8" width="16.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3883,7 +3891,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3956,14 +3964,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="15.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="11.7272727272727" customWidth="1"/>
-    <col min="7" max="7" width="15.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="15.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="15.275" customWidth="1"/>
+    <col min="5" max="5" width="15.275" customWidth="1"/>
+    <col min="6" max="6" width="11.725" customWidth="1"/>
+    <col min="7" max="7" width="15.725" customWidth="1"/>
+    <col min="8" max="8" width="15.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4165,7 +4173,7 @@
       <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4234,16 +4242,16 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="24.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="32.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="23.3727272727273" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="32.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4262,7 +4270,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -4277,7 +4285,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -4292,7 +4300,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
@@ -4307,7 +4315,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
@@ -4427,7 +4435,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" ht="15" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
@@ -4442,7 +4450,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
@@ -4757,7 +4765,7 @@
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" ht="15" spans="1:5">
+    <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="10" t="s">
         <v>129</v>
       </c>
@@ -4772,7 +4780,7 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" ht="15" spans="1:5">
+    <row r="36" ht="14.25" spans="1:5">
       <c r="A36" s="10" t="s">
         <v>132</v>
       </c>
@@ -4787,7 +4795,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" ht="15" spans="1:5">
+    <row r="37" ht="14.25" spans="1:5">
       <c r="A37" s="10" t="s">
         <v>135</v>
       </c>
@@ -4802,7 +4810,7 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" ht="15" spans="1:5">
+    <row r="38" ht="14.25" spans="1:5">
       <c r="A38" s="10" t="s">
         <v>138</v>
       </c>
@@ -4817,7 +4825,7 @@
       </c>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" ht="15" spans="1:5">
+    <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="10" t="s">
         <v>141</v>
       </c>
@@ -4907,7 +4915,7 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" ht="15" spans="1:5">
+    <row r="45" ht="14.25" spans="1:5">
       <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
@@ -4922,7 +4930,7 @@
       </c>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" ht="15" spans="1:5">
+    <row r="46" ht="14.25" spans="1:5">
       <c r="A46" s="10" t="s">
         <v>162</v>
       </c>
@@ -4937,7 +4945,7 @@
       </c>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" ht="15" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="10" t="s">
         <v>165</v>
       </c>
@@ -4952,7 +4960,7 @@
       </c>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" ht="15" spans="1:5">
+    <row r="48" ht="14.25" spans="1:5">
       <c r="A48" s="10" t="s">
         <v>168</v>
       </c>
@@ -4967,7 +4975,7 @@
       </c>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" ht="15" spans="1:5">
+    <row r="49" ht="14.25" spans="1:5">
       <c r="A49" s="10" t="s">
         <v>170</v>
       </c>
@@ -4982,7 +4990,7 @@
       </c>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" ht="15" spans="1:5">
+    <row r="50" ht="14.25" spans="1:5">
       <c r="A50" s="10" t="s">
         <v>171</v>
       </c>
@@ -4997,7 +5005,7 @@
       </c>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" ht="15" spans="1:5">
+    <row r="51" ht="14.25" spans="1:5">
       <c r="A51" s="10" t="s">
         <v>173</v>
       </c>
@@ -5012,7 +5020,7 @@
       </c>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" ht="15" spans="1:5">
+    <row r="52" ht="14.25" spans="1:5">
       <c r="A52" s="10" t="s">
         <v>174</v>
       </c>
@@ -5027,7 +5035,7 @@
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" ht="15" spans="1:5">
+    <row r="53" ht="14.25" spans="1:5">
       <c r="A53" s="10" t="s">
         <v>176</v>
       </c>
@@ -5042,7 +5050,7 @@
       </c>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" ht="15" spans="1:5">
+    <row r="54" ht="14.25" spans="1:5">
       <c r="A54" s="10" t="s">
         <v>177</v>
       </c>
@@ -5057,7 +5065,7 @@
       </c>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" ht="15" spans="1:5">
+    <row r="55" ht="14.25" spans="1:5">
       <c r="A55" s="10" t="s">
         <v>179</v>
       </c>
@@ -5072,7 +5080,7 @@
       </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" ht="15" spans="1:5">
+    <row r="56" ht="14.25" spans="1:5">
       <c r="A56" s="10" t="s">
         <v>180</v>
       </c>
@@ -5087,7 +5095,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" ht="15" spans="1:5">
+    <row r="57" ht="14.25" spans="1:5">
       <c r="A57" s="10" t="s">
         <v>182</v>
       </c>
@@ -5102,7 +5110,7 @@
       </c>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" ht="15" spans="1:5">
+    <row r="58" ht="14.25" spans="1:5">
       <c r="A58" s="10" t="s">
         <v>29</v>
       </c>
@@ -5279,10 +5287,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5462,7 +5470,7 @@
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -5535,16 +5543,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="15.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="13.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="14.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="13.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="14.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="14.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="16.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="12.725" customWidth="1"/>
+    <col min="2" max="2" width="15.725" customWidth="1"/>
+    <col min="3" max="3" width="13.4583333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.725" customWidth="1"/>
+    <col min="5" max="5" width="13.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.1833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5746,7 +5754,7 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -5819,15 +5827,15 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="12.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="16.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="16.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="14.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6007,12 +6015,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="20.725" customWidth="1"/>
+    <col min="3" max="3" width="16.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6258,7 +6266,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6317,16 +6325,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="28.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="18.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="15.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="16.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="13.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="15.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="17.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.725" customWidth="1"/>
+    <col min="3" max="3" width="18.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.3666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6572,7 +6580,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6631,15 +6639,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="22.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="16.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="13.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="16.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="17.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.275" customWidth="1"/>
+    <col min="8" max="8" width="17.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6885,16 +6893,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="15.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="16.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="109.809090909091" customWidth="1"/>
-    <col min="5" max="5" width="33.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="19.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="109.808333333333" customWidth="1"/>
+    <col min="5" max="5" width="33.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7142,7 +7150,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7201,15 +7209,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.275" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="12.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="17.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="16.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7367,7 +7375,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7426,15 +7434,15 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="12.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="13.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="14.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="11.7272727272727" customWidth="1"/>
-    <col min="7" max="7" width="15.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="13.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.725" customWidth="1"/>
+    <col min="5" max="5" width="14.275" customWidth="1"/>
+    <col min="6" max="6" width="11.725" customWidth="1"/>
+    <col min="7" max="7" width="15.725" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7703,7 +7711,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7762,13 +7770,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="14.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="11.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="15.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="13.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="16.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.275" customWidth="1"/>
+    <col min="6" max="6" width="11.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7904,7 +7912,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7963,15 +7971,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="18.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="13.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="23.275" customWidth="1"/>
+    <col min="2" max="2" width="18.275" customWidth="1"/>
+    <col min="4" max="4" width="15.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="13.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="17.725" customWidth="1"/>
+    <col min="8" max="8" width="13.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8239,7 +8247,7 @@
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8298,16 +8306,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="12.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.0916666666667" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="12.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="14.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="14.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="11.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.1833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8443,16 +8451,16 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="13.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="13.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="16.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="15.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.725" customWidth="1"/>
+    <col min="3" max="3" width="12.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.725" customWidth="1"/>
+    <col min="6" max="6" width="13.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8632,7 +8640,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8691,16 +8699,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="11.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="10.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="15.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="14.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="14.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="15.275" customWidth="1"/>
+    <col min="2" max="2" width="13.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.275" customWidth="1"/>
+    <col min="5" max="5" width="10.725" customWidth="1"/>
+    <col min="6" max="6" width="15.4583333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.5416666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8836,7 +8844,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8895,14 +8903,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="14.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="14.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="16.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="12.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.725" customWidth="1"/>
+    <col min="6" max="6" width="16.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="19.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9038,7 +9046,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9097,10 +9105,10 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="14.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="18.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9236,7 +9244,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9295,11 +9303,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="14.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="22.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9435,7 +9443,7 @@
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9494,16 +9502,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9683,11 +9691,11 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9747,7 +9755,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9806,16 +9814,16 @@
       <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="13.725" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10039,12 +10047,12 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10104,16 +10112,16 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="21.4583333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10337,12 +10345,12 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10416,16 +10424,16 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10715,12 +10723,12 @@
       <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="18.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="16.275" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10794,16 +10802,16 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11005,12 +11013,12 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="18.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11084,16 +11092,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="88.7545454545455" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="88.7583333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11324,15 +11332,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="15.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="108.127272727273" customWidth="1"/>
-    <col min="6" max="6" width="12.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="15.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="16.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="108.125" customWidth="1"/>
+    <col min="6" max="6" width="12.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.1833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11756,16 +11764,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="89" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11993,16 +12001,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="99" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12230,16 +12238,16 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="100.254545454545" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="100.258333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12467,16 +12475,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="136" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12704,16 +12712,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="125.627272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="125.625" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12941,16 +12949,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.8166666666667" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="85.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="85.375" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13178,16 +13186,16 @@
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="16.5416666666667" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="85.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="85.375" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13369,16 +13377,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="85.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="85.375" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13445,7 +13453,6 @@
       <c r="C4" t="s">
         <v>237</v>
       </c>
-      <c r="D4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -13461,7 +13468,6 @@
       <c r="C5" t="s">
         <v>237</v>
       </c>
-      <c r="D5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -13477,7 +13483,6 @@
       <c r="C6" t="s">
         <v>237</v>
       </c>
-      <c r="D6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -13493,7 +13498,6 @@
       <c r="C7" t="s">
         <v>237</v>
       </c>
-      <c r="D7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -13509,7 +13513,6 @@
       <c r="C8" t="s">
         <v>237</v>
       </c>
-      <c r="D8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -13525,7 +13528,6 @@
       <c r="C9" t="s">
         <v>237</v>
       </c>
-      <c r="D9"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -13557,16 +13559,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13676,22 +13678,22 @@
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13781,7 +13783,9 @@
         <v>205</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
@@ -13790,6 +13794,75 @@
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13807,11 +13880,11 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13885,11 +13958,11 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13928,7 +14001,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -13943,21 +14016,21 @@
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="105" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="144.5" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14047,7 +14120,9 @@
         <v>205</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
@@ -14060,7 +14135,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>224</v>
@@ -14069,16 +14144,87 @@
         <v>209</v>
       </c>
       <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="b">
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14097,11 +14243,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14154,7 +14300,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>238</v>
@@ -14169,22 +14315,22 @@
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="19.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14274,7 +14420,9 @@
         <v>205</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
@@ -14296,7 +14444,9 @@
         <v>204</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
@@ -14309,16 +14459,18 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
@@ -14340,7 +14492,9 @@
         <v>251</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
@@ -14362,7 +14516,9 @@
         <v>251</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
@@ -14384,7 +14540,9 @@
         <v>251</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
@@ -14400,13 +14558,15 @@
         <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
@@ -14419,16 +14579,18 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
@@ -14441,16 +14603,18 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
@@ -14463,16 +14627,18 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
@@ -14485,16 +14651,18 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
@@ -14502,6 +14670,75 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14520,7 +14757,7 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -14558,7 +14795,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -14573,21 +14810,21 @@
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="1" max="2" width="16.275" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14677,7 +14914,9 @@
         <v>205</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
@@ -14699,7 +14938,9 @@
         <v>204</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
@@ -14712,16 +14953,18 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
@@ -14734,16 +14977,18 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
@@ -14756,16 +15001,18 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
@@ -14778,16 +15025,18 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
@@ -14795,6 +15044,75 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14813,11 +15131,11 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14870,7 +15188,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>238</v>
@@ -14884,7 +15202,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
         <v>238</v>
@@ -14905,16 +15223,16 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15039,10 +15357,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -15074,14 +15392,14 @@
       <selection activeCell="A1" sqref="$A1:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15206,10 +15524,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -15228,10 +15546,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -15250,10 +15568,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -15307,11 +15625,11 @@
       <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15385,13 +15703,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="10.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="19.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="11.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.725" customWidth="1"/>
+    <col min="8" max="8" width="19.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15659,16 +15977,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="11.8166666666667" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15793,10 +16111,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -15815,10 +16133,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -15837,10 +16155,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -15859,10 +16177,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -15903,7 +16221,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>246</v>
@@ -15938,11 +16256,11 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15981,7 +16299,7 @@
         <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -16002,14 +16320,14 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16112,10 +16430,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -16134,10 +16452,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -16213,12 +16531,12 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16278,16 +16596,16 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16403,16 +16721,16 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.275" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16515,10 +16833,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -16559,10 +16877,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -16581,10 +16899,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -16603,10 +16921,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -16625,10 +16943,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -16669,7 +16987,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -16691,10 +17009,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -16713,10 +17031,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -16757,10 +17075,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -16779,10 +17097,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -16801,10 +17119,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -16836,12 +17154,12 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16901,15 +17219,15 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17025,15 +17343,15 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17136,10 +17454,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -17180,10 +17498,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -17202,10 +17520,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -17224,10 +17542,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -17246,10 +17564,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -17290,7 +17608,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -17312,10 +17630,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -17334,10 +17652,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -17378,10 +17696,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -17400,10 +17718,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -17422,10 +17740,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -17505,12 +17823,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="56.1272727272727" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17570,11 +17888,11 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17648,15 +17966,15 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17772,15 +18090,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17883,10 +18201,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -17927,10 +18245,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -17949,10 +18267,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -17971,10 +18289,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -17993,10 +18311,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -18037,7 +18355,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -18059,10 +18377,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -18081,10 +18399,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -18125,10 +18443,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -18147,10 +18465,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -18169,10 +18487,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -18204,12 +18522,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="17.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18269,15 +18587,15 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18393,15 +18711,15 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18526,10 +18844,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -18548,10 +18866,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -18592,10 +18910,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -18627,12 +18945,12 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="17.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18692,16 +19010,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18804,10 +19122,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -18848,10 +19166,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>329</v>
@@ -18870,10 +19188,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>329</v>
@@ -18905,12 +19223,12 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="17.3666666666667" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18970,16 +19288,16 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="24.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.4583333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19082,10 +19400,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>329</v>
@@ -19104,10 +19422,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>329</v>
@@ -19126,10 +19444,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>213</v>
@@ -19161,12 +19479,12 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="68" activeTab="70"/>
+    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="69" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="442">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -1215,10 +1215,16 @@
     <t>Operstatus</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Namespace Name</t>
+  </si>
+  <si>
     <t>collect_task</t>
   </si>
   <si>
-    <t>Collection Task</t>
+    <t>Collection Cluster</t>
   </si>
   <si>
     <t>collect</t>
@@ -1236,15 +1242,18 @@
     <t>Collection Time</t>
   </si>
   <si>
+    <t>Workload Name</t>
+  </si>
+  <si>
+    <t>workload_type</t>
+  </si>
+  <si>
+    <t>[{"id":"deployment", "name":"Deployment"}, {"id":"statefulset", "name":"StatefulSet"}, {"id":"daemonset", "name":"DaemonSet"}, {"id":"job", "name":"Job"}, {"id":"cronjob", "name":"Cronjob"}, {"id":"replicaset", "name":"ReplicaSet"}]</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
-    <t>workload_type</t>
-  </si>
-  <si>
-    <t>[{"id":"Deployment", "name":"Deployment"}, {"id":"StatefulSet", "name":"StatefulSet"}, {"id":"DaemonSet", "name":"DaemonSet"}, {"id":"Job", "name":"Job"}, {"id":"Cronjob", "name":"Cronjob"}, {"id":"ReplicaSet", "name":"ReplicaSet"}]</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -1278,25 +1287,28 @@
     <t>Pod CIDR</t>
   </si>
   <si>
-    <t>Limit_CPU</t>
+    <t>Pod Name</t>
+  </si>
+  <si>
+    <t>limit_cpu</t>
   </si>
   <si>
     <t>CPU Limit</t>
   </si>
   <si>
-    <t>Limit_Memory</t>
+    <t>limit_memory</t>
   </si>
   <si>
     <t>Memory Limit</t>
   </si>
   <si>
-    <t>Request_CPU</t>
+    <t>request_cpu</t>
   </si>
   <si>
     <t>CPU Request</t>
   </si>
   <si>
-    <t>Request_Memory</t>
+    <t>request_memory</t>
   </si>
   <si>
     <t>Memory Request</t>
@@ -1513,8 +1525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,7 +1549,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,24 +1578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,22 +1591,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1614,15 +1611,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1631,6 +1627,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,6 +1670,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1670,7 +1712,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,67 +1808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,43 +1832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,37 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,15 +1861,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1876,6 +1879,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1887,17 +1919,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,15 +1947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1957,10 +1969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1969,31 +1981,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2002,100 +2014,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4242,7 +4254,7 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -13678,13 +13690,13 @@
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
@@ -13774,20 +13786,20 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -13798,45 +13810,46 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -13850,18 +13863,41 @@
         <v>373</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="b">
+      <c r="E8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13955,7 +13991,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -14001,7 +14037,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -14016,17 +14052,18 @@
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.1833333333333" customWidth="1"/>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="144.5" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="43.625" customWidth="1"/>
+    <col min="4" max="4" width="110.75" customWidth="1"/>
     <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="9.54166666666667" customWidth="1"/>
     <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
@@ -14111,20 +14148,20 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -14135,17 +14172,15 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" t="s">
-        <v>376</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>355</v>
       </c>
@@ -14156,27 +14191,30 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>378</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -14184,22 +14222,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -14213,18 +14251,41 @@
         <v>373</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="b">
+      <c r="E9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14240,12 +14301,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="9.54166666666667" customWidth="1"/>
     <col min="4" max="4" width="12.9083333333333" customWidth="1"/>
   </cols>
@@ -14300,7 +14362,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>238</v>
@@ -14315,15 +14377,15 @@
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="10.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
@@ -14411,20 +14473,20 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -14435,13 +14497,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -14454,15 +14516,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -14483,13 +14545,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -14507,10 +14569,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>251</v>
@@ -14531,10 +14593,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>251</v>
@@ -14555,13 +14617,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -14579,10 +14641,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>204</v>
@@ -14603,10 +14665,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>204</v>
@@ -14627,10 +14689,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -14651,10 +14713,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -14675,22 +14737,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>0</v>
@@ -14698,22 +14761,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
@@ -14727,18 +14790,41 @@
         <v>373</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="b">
+      <c r="E18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14754,10 +14840,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -14795,7 +14885,7 @@
         <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -14810,15 +14900,16 @@
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="16.275" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="51.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="9.54166666666667" customWidth="1"/>
     <col min="5" max="5" width="11.8166666666667" customWidth="1"/>
@@ -14905,20 +14996,20 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -14929,13 +15020,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -14948,18 +15039,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -14977,10 +15068,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>251</v>
@@ -15001,10 +15092,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>251</v>
@@ -15025,10 +15116,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>251</v>
@@ -15049,22 +15140,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>0</v>
@@ -15072,22 +15164,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
@@ -15101,18 +15193,41 @@
         <v>373</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="b">
+      <c r="E13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15128,7 +15243,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -15188,7 +15303,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>238</v>
@@ -15202,7 +15317,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
         <v>238</v>
@@ -15357,10 +15472,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -15389,7 +15504,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -15524,10 +15639,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -15546,10 +15661,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -15568,10 +15683,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -16111,10 +16226,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -16133,10 +16248,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -16155,10 +16270,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -16177,10 +16292,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -16221,7 +16336,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>246</v>
@@ -16299,7 +16414,7 @@
         <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>238</v>
@@ -16430,10 +16545,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -16452,10 +16567,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -16833,10 +16948,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -16877,10 +16992,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -16899,10 +17014,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -16921,10 +17036,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -16943,10 +17058,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -16987,7 +17102,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -17009,10 +17124,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -17031,10 +17146,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -17075,10 +17190,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -17097,10 +17212,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -17119,10 +17234,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -17454,10 +17569,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -17498,10 +17613,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -17520,10 +17635,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -17542,10 +17657,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -17564,10 +17679,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -17608,7 +17723,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -17630,10 +17745,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -17652,10 +17767,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -17696,10 +17811,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -17718,10 +17833,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -17740,10 +17855,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -18201,10 +18316,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -18245,10 +18360,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -18267,10 +18382,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>204</v>
@@ -18289,10 +18404,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -18311,10 +18426,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>204</v>
@@ -18355,7 +18470,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>224</v>
@@ -18377,10 +18492,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
@@ -18399,10 +18514,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>204</v>
@@ -18443,10 +18558,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>204</v>
@@ -18465,10 +18580,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>329</v>
@@ -18487,10 +18602,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>329</v>
@@ -18844,10 +18959,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>204</v>
@@ -18866,10 +18981,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>204</v>
@@ -18910,10 +19025,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>204</v>
@@ -19122,10 +19237,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -19166,10 +19281,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>329</v>
@@ -19188,10 +19303,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>329</v>
@@ -19400,10 +19515,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>329</v>
@@ -19422,10 +19537,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>329</v>
@@ -19444,10 +19559,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>213</v>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="69" activeTab="74"/>
+    <workbookView windowWidth="28800" windowHeight="12420" firstSheet="92" activeTab="97"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -1425,7 +1425,7 @@
     <t>registration_date</t>
   </si>
   <si>
-    <t>Registration Ddate</t>
+    <t>Registration Date</t>
   </si>
   <si>
     <t>expiration_time</t>
@@ -1445,10 +1445,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1533,21 +1533,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1555,16 +1540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,9 +1556,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1610,15 +1608,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,7 +1633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,13 +1654,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1670,7 +1670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1700,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,13 +1766,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,49 +1826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,85 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,11 +1879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,18 +1897,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1923,17 +1918,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1961,6 +1950,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1969,10 +1969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1984,13 +1984,13 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,115 +1999,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4254,8 +4254,8 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5013,7 +5013,7 @@
         <v>164</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" s="11"/>
     </row>
@@ -14902,7 +14902,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -19399,8 +19399,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15240" activeTab="1"/>
+    <workbookView windowHeight="15240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -742,13 +742,7 @@
     <t>enum</t>
   </si>
   <si>
-    <t>[
-{"id":"testing", "name":"Tesging"}, 
-{"id":"production", "name":"Production"},
-{"id":"retired","name":"Retired"},
-{"id":"deployed",name:"Deployed"},
-{"id":"maintenance","name":"Maintenance"}
-]</t>
+    <t>[{"id":"testing", "name":"Tesging"}, {"id":"production", "name":"Production"},{"id":"retired","name":"Retired"},{"id":"deployed",name:"Deployed"},{"id":"maintenance","name":"Maintenance"}]</t>
   </si>
   <si>
     <t>owner</t>
@@ -4118,7 +4112,7 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6568,8 +6562,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -6680,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="118" spans="1:8">
+    <row r="5" ht="84" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>203</v>
       </c>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15240" activeTab="2"/>
+    <workbookView windowHeight="15240" firstSheet="89" activeTab="95"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -829,10 +829,7 @@
     <t>OS Type</t>
   </si>
   <si>
-    <t>[
-{"id":"windows", "name":"Windows"}, 
-{"id":"linux", "name":"Linux"}
-]</t>
+    <t>[{"id":"windows","name":"Windows"},{"id":"linux","name":"Linux"}]</t>
   </si>
   <si>
     <t>os_distribution</t>
@@ -841,32 +838,7 @@
     <t>OS Distribution</t>
   </si>
   <si>
-    <t>[
-        {"id": "windows_server_2022", "name": "Windows Server 2022"},
-        {"id": "windows_server_2019", "name": "Windows Server 2019"},
-        {"id": "windows_server_2016", "name": "Windows Server 2016"},
-        {"id": "windows_server_2012", "name": "Windows Server 2012"},
-        {"id": "ubuntu_22_04", "name": "Ubuntu 22.04"},
-        {"id": "ubuntu_20_04", "name": "Ubuntu 20.04"},
-        {"id": "ubuntu_18_04", "name": "Ubuntu 18.04"},
-        {"id": "centos_8", "name": "CentOS 8"},
-        {"id": "centos_7", "name": "CentOS 7"},
-        {"id": "red_hat_9", "name": "Red Hat Enterprise Linux 9"},
-        {"id": "red_hat_8", "name": "Red Hat Enterprise Linux 8"},
-        {"id": "suse_15", "name": "SUSE Linux Enterprise 15"},
-        {"id": "debian_11", "name": "Debian 11"},
-        {"id": "debian_10", "name": "Debian 10"},
-        {"id": "amazon_linux_2", "name": "Amazon Linux 2"},
-        {"id": "oracle_linux_8", "name": "Oracle Linux 8"},
-        {"id": "almalinux_8", "name": "AlmaLinux 8"},
-        {"id": "rocky_linux_8", "name": "Rocky Linux 8"},
-        {"id": "kali_linux_2022_1", "name": "Kali Linux 2022.1"},
-        {"id": "fedora_35", "name": "Fedora 35"},
-        {"id": "opensuse_15_3", "name": "openSUSE Leap 15.3"},
-        {"id": "freebsd_13", "name": "FreeBSD 13"},
-        {"id": "arch_linux", "name": "Arch Linux"},
-        {"id": "other", "name": "Other"}
-]</t>
+    <t>[{"id":"windows_server_2022","name":"Windows Server 2022"},{"id":"windows_server_2019","name":"Windows Server 2019"},{"id":"windows_server_2016","name":"Windows Server 2016"},{"id":"windows_server_2012","name":"Windows Server 2012"},{"id":"ubuntu_22_04","name":"Ubuntu 22.04"},{"id":"ubuntu_20_04","name":"Ubuntu 20.04"},{"id":"ubuntu_18_04","name":"Ubuntu 18.04"},{"id":"centos_8","name":"CentOS 8"},{"id":"centos_7","name":"CentOS 7"},{"id":"red_hat_9","name":"Red Hat Enterprise Linux 9"},{"id":"red_hat_8","name":"Red Hat Enterprise Linux 8"},{"id":"suse_15","name":"SUSE Linux Enterprise 15"},{"id":"debian_11","name":"Debian 11"},{"id":"debian_10","name":"Debian 10"},{"id":"amazon_linux_2","name":"Amazon Linux 2"},{"id":"oracle_linux_8","name":"Oracle Linux 8"},{"id":"almalinux_8","name":"AlmaLinux 8"},{"id":"rocky_linux_8","name":"Rocky Linux 8"},{"id":"kali_linux_2022_1","name":"Kali Linux 2022.1"},{"id":"fedora_35","name":"Fedora 35"},{"id":"opensuse_15_3","name":"openSUSE Leap 15.3"},{"id":"freebsd_13","name":"FreeBSD 13"},{"id":"arch_linux","name":"Arch Linux"},{"id":"other","name":"Other"}]</t>
   </si>
   <si>
     <t>os_architecture</t>
@@ -875,13 +847,7 @@
     <t>OS Architecture</t>
   </si>
   <si>
-    <t>[ 
-{"id": "x86", "name": "x86"},
-{"id": "x64", "name": "x64"},
-{"id": "arm", "name": "ARM"},
-{"id": "arm64", "name": "ARM64"},
-{"id": "other", "name": "Other"}
-]</t>
+    <t>[{"id":"x86","name":"x86"},{"id":"x64","name":"x64"},{"id":"arm","name":"ARM"},{"id":"arm64","name":"ARM64"},{"id":"other","name":"Other"}]</t>
   </si>
   <si>
     <t>cpu_model</t>
@@ -1346,7 +1312,7 @@
     <t>Expired Time</t>
   </si>
   <si>
-    <t>[{"id":"japan_west","name":"Japan West"},{"id":"japan_east","name": "Japan East"}]</t>
+    <t>[{"id":"japan_west","name":"Japan West"},{"id":"japan_east","name":"Japan East"}]</t>
   </si>
   <si>
     <t>issuer</t>
@@ -6562,8 +6528,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -12889,7 +12855,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -13069,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="118" spans="1:8">
+    <row r="8" ht="34" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -13137,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="118" spans="1:8">
+    <row r="11" ht="34" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>247</v>
       </c>
@@ -17878,8 +17844,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -18038,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="68" spans="1:8">
+    <row r="7" ht="17" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -18062,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:8">
+    <row r="8" ht="236" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
@@ -18086,7 +18052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="118" spans="1:8">
+    <row r="9" ht="34" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>239</v>
       </c>
@@ -18154,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="118" spans="1:8">
+    <row r="12" ht="34" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>247</v>
       </c>
@@ -18731,8 +18697,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15240" firstSheet="89" activeTab="95"/>
+    <workbookView windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -2019,21 +2019,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2041,14 +2044,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2448,7 +2451,7 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2459,130 +2462,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2769,24 +2772,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2840,7 +2843,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
@@ -3094,24 +3097,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3169,7 +3172,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -3191,7 +3194,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3380,24 +3383,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3455,7 +3458,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -3477,7 +3480,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3669,24 +3672,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3744,7 +3747,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -3766,7 +3769,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3958,24 +3961,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4033,7 +4036,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -4055,7 +4058,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -4092,814 +4095,814 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" ht="17.6" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="17.6" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" ht="17.6" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="17.6" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="17.6" spans="1:5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" ht="17.6" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" ht="17.6" spans="1:5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" ht="17.6" spans="1:5">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" ht="17.6" spans="1:5">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" ht="17.6" spans="1:5">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" ht="17.6" spans="1:5">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" ht="17.6" spans="1:5">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" ht="17.6" spans="1:5">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" ht="17.6" spans="1:5">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" ht="17.6" spans="1:5">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" ht="17.6" spans="1:5">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" ht="17.6" spans="1:5">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" ht="17.6" spans="1:5">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" ht="17.6" spans="1:5">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" ht="17.6" spans="1:5">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" ht="17.6" spans="1:5">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1"/>
@@ -5197,24 +5200,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5250,7 +5253,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -5272,7 +5275,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -5459,24 +5462,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5534,7 +5537,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -5556,7 +5559,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -5739,24 +5742,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5858,7 +5861,7 @@
       <c r="C9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -5880,7 +5883,7 @@
       <c r="C10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -6070,24 +6073,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6178,7 +6181,7 @@
       <c r="C9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -6364,24 +6367,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6529,7 +6532,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -6606,7 +6609,7 @@
       <c r="C3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -6628,7 +6631,7 @@
       <c r="C4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -6640,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="84" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
@@ -6650,7 +6653,7 @@
       <c r="C5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>206</v>
       </c>
       <c r="F5" s="1" t="b">
@@ -6673,7 +6676,7 @@
       <c r="C6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -6695,7 +6698,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -6883,24 +6886,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6936,7 +6939,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -7123,24 +7126,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7198,7 +7201,7 @@
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
@@ -7383,24 +7386,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7414,7 +7417,7 @@
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -7427,13 +7430,13 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7614,24 +7617,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7711,7 +7714,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -7898,24 +7901,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7951,7 +7954,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -8203,24 +8206,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8256,7 +8259,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -8441,24 +8444,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8494,7 +8497,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -8678,7 +8681,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8728,7 +8731,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -8913,7 +8916,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8963,7 +8966,7 @@
       <c r="C6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
@@ -9252,98 +9255,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="b">
+      <c r="C3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9591,7 +9594,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9909,7 +9912,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -10177,7 +10180,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -12854,8 +12857,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -12944,24 +12947,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12997,7 +13000,7 @@
       <c r="C6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E6" s="1"/>
@@ -13021,7 +13024,7 @@
       <c r="C7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E7" s="1"/>
@@ -13035,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -13045,7 +13048,7 @@
       <c r="C8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E8" s="1"/>
@@ -13103,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>247</v>
       </c>
@@ -13113,7 +13116,7 @@
       <c r="C11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E11" s="1"/>
@@ -13533,7 +13536,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -13610,7 +13613,7 @@
       <c r="C3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3"/>
       <c r="E3" s="1" t="s">
         <v>316</v>
       </c>
@@ -13634,7 +13637,7 @@
       <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4"/>
       <c r="E4" s="1" t="s">
         <v>316</v>
       </c>
@@ -13658,7 +13661,7 @@
       <c r="C5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5"/>
       <c r="E5" s="1" t="s">
         <v>316</v>
       </c>
@@ -16899,7 +16902,7 @@
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1"/>
@@ -17100,7 +17103,7 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -17527,24 +17530,24 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -17624,7 +17627,7 @@
       <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -17646,7 +17649,7 @@
       <c r="C9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -17778,7 +17781,7 @@
       <c r="C27" s="1"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>260</v>
       </c>
     </row>
@@ -17842,10 +17845,10 @@
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -17853,7 +17856,7 @@
     <col min="1" max="1" width="15.1826923076923" customWidth="1"/>
     <col min="2" max="2" width="24.9423076923077" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="88.2019230769231" customWidth="1"/>
+    <col min="4" max="4" width="255.692307692308" customWidth="1"/>
     <col min="5" max="5" width="11.8173076923077" customWidth="1"/>
     <col min="6" max="6" width="9.53846153846154" customWidth="1"/>
     <col min="7" max="7" width="11.8173076923077" customWidth="1"/>
@@ -17922,7 +17925,7 @@
       <c r="C3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>316</v>
       </c>
@@ -17940,13 +17943,13 @@
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -17968,7 +17971,7 @@
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -17980,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>383</v>
       </c>
@@ -17990,7 +17993,7 @@
       <c r="C6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E6" s="1"/>
@@ -18004,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -18014,7 +18017,7 @@
       <c r="C7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E7" s="1"/>
@@ -18028,7 +18031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="236" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
@@ -18038,7 +18041,7 @@
       <c r="C8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E8" s="1"/>
@@ -18052,7 +18055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>239</v>
       </c>
@@ -18062,7 +18065,7 @@
       <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E9" s="1"/>
@@ -18086,7 +18089,7 @@
       <c r="C10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -18108,7 +18111,7 @@
       <c r="C11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -18120,7 +18123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="34" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>247</v>
       </c>
@@ -18130,7 +18133,7 @@
       <c r="C12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E12" s="1"/>
@@ -18154,7 +18157,7 @@
       <c r="C13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -18176,7 +18179,7 @@
       <c r="C14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="b">
         <v>0</v>
@@ -18187,6 +18190,12 @@
       <c r="H14" s="1" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18251,7 +18260,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -18464,7 +18473,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -18697,7 +18706,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15240"/>
+    <workbookView windowHeight="15240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -742,7 +742,7 @@
     <t>enum</t>
   </si>
   <si>
-    <t>[{"id":"testing", "name":"Tesging"}, {"id":"production", "name":"Production"},{"id":"retired","name":"Retired"},{"id":"deployed",name:"Deployed"},{"id":"maintenance","name":"Maintenance"}]</t>
+    <t>[{"id":"testing","name":"Tesging"},{"id":"production","name":"Production"},{"id":"retired","name":"Retired"},{"id":"deployed",name:"Deployed"},{"id":"maintenance","name":"Maintenance"}]</t>
   </si>
   <si>
     <t>owner</t>
@@ -2451,8 +2451,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -6531,8 +6531,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -6540,7 +6540,7 @@
     <col min="1" max="1" width="29.0769230769231" customWidth="1"/>
     <col min="2" max="2" width="29.5865384615385" customWidth="1"/>
     <col min="3" max="3" width="16.8173076923077" customWidth="1"/>
-    <col min="4" max="4" width="46.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="191.615384615385" customWidth="1"/>
     <col min="5" max="5" width="13.1826923076923" customWidth="1"/>
     <col min="6" max="6" width="13.8076923076923" customWidth="1"/>
     <col min="7" max="7" width="14.4230769230769" customWidth="1"/>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -733,7 +733,7 @@
     <t>enum</t>
   </si>
   <si>
-    <t>[{"id":"testing","name":"Tesging"},{"id":"production","name":"Production"},{"id":"retired","name":"Retired"},{"id":"deployed","name:"Deployed"},{"id":"maintenance","name":"Maintenance"}]</t>
+    <t>[{"id":"testing","name":"Tesging"},{"id":"production","name":"Production"},{"id":"retired","name":"Retired"},{"id":"deployed","name":"Deployed"},{"id":"maintenance","name":"Maintenance"}]</t>
   </si>
   <si>
     <t>owner</t>
@@ -2443,7 +2443,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -4072,7 +4072,7 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -6507,8 +6507,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/apps/cmdb/model_migrate/model_config.xlsx
+++ b/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15240" activeTab="2"/>
+    <workbookView windowHeight="15240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -2675,7 +2675,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3495,7 +3495,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4073,7 +4073,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6507,7 +6507,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7428,7 +7428,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -12833,8 +12833,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
